--- a/data_visualization/sentence_length.xlsx
+++ b/data_visualization/sentence_length.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="1000" windowWidth="28800" windowHeight="15840" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Plot" sheetId="8" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="100">
   <si>
     <t>ABORTION</t>
   </si>
@@ -324,12 +324,6 @@
   </si>
   <si>
     <t>Counts</t>
-  </si>
-  <si>
-    <t>Normalized maximum sentence length</t>
-  </si>
-  <si>
-    <t>Normalized counts</t>
   </si>
   <si>
     <t>Offense level</t>
@@ -549,7 +543,126 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0844387992632026"/>
+          <c:y val="0.0943273882933308"/>
+          <c:w val="0.838275307167581"/>
+          <c:h val="0.773569103862017"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plot!$D$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Counts</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Plot!$A$15:$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Violation</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B misdemeanor</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>A misdemeanor</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>E felony</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>D felony</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>D violent felony</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>B violent felony</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>A-I felony</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Plot!$D$15:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>615188.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>395290.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.505034E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>885795.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>439574.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>234632.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2304.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4574.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2080653120"/>
+        <c:axId val="-2061067216"/>
+      </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -558,11 +671,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Plot!$E$14</c:f>
+              <c:f>Plot!$C$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Normalized maximum sentence length</c:v>
+                  <c:v>Average days</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -613,126 +726,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Plot!$E$15:$E$22</c:f>
+              <c:f>Plot!$C$15:$C$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>-0.176454537671233</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.17146823630137</c:v>
+                  <c:v>182.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.166454537671233</c:v>
+                  <c:v>365.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.149804537671233</c:v>
+                  <c:v>972.725</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.126454537671233</c:v>
+                  <c:v>1825.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.106454537671233</c:v>
+                  <c:v>2555.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0735454623287671</c:v>
+                  <c:v>9125.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.823545462328767</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Plot!$F$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Normalized counts</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Plot!$A$15:$A$22</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>Violation</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>B misdemeanor</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>A misdemeanor</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>E felony</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>D felony</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>D violent felony</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>B violent felony</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>A-I felony</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Plot!$F$15:$F$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>-0.00803557515193409</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.0958988284793006</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.747078240561307</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.100089152645311</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.0782045506307113</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.160091929612863</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.252921759438693</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.252014749893117</c:v>
+                  <c:v>36500.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -747,68 +767,18 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2141208400"/>
-        <c:axId val="2141293424"/>
+        <c:axId val="-2061404368"/>
+        <c:axId val="-2074458896"/>
       </c:lineChart>
-      <c:catAx>
-        <c:axId val="2141208400"/>
+      <c:valAx>
+        <c:axId val="-2074458896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2141293424"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2141293424"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="r"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -824,7 +794,7 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -854,10 +824,119 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2141208400"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="-2061404368"/>
+        <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:catAx>
+        <c:axId val="-2061404368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2074458896"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2061067216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2080653120"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="-2080653120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2061067216"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1496,15 +1575,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>673100</xdr:colOff>
+      <xdr:colOff>203200</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2436,10 +2515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:F22"/>
+  <dimension ref="A3:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2449,7 +2528,7 @@
     <col min="6" max="6" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>76</v>
       </c>
@@ -2463,7 +2542,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>68</v>
       </c>
@@ -2477,7 +2556,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>72</v>
       </c>
@@ -2492,7 +2571,7 @@
         <v>36500</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>70</v>
       </c>
@@ -2507,7 +2586,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>69</v>
       </c>
@@ -2522,7 +2601,7 @@
         <v>9125</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>65</v>
       </c>
@@ -2537,7 +2616,7 @@
         <v>1825</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>71</v>
       </c>
@@ -2552,7 +2631,7 @@
         <v>2555</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>66</v>
       </c>
@@ -2567,7 +2646,7 @@
         <v>972.72500000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>67</v>
       </c>
@@ -2581,7 +2660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>77</v>
       </c>
@@ -2589,32 +2668,26 @@
         <v>5082391</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>99</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>101</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>67</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C15" s="10">
         <v>0</v>
@@ -2622,16 +2695,8 @@
       <c r="D15" s="11">
         <v>615188</v>
       </c>
-      <c r="E15" s="10">
-        <f>(C15-AVERAGE(C$15:C$22))/(MAX(C$15:C$22)-MIN(C$15:C$22))</f>
-        <v>-0.17645453767123287</v>
-      </c>
-      <c r="F15" s="10">
-        <f>(D15-AVERAGE(D$15:D$22))/(MAX(D$15:D$22)-MIN(D$15:D$22))</f>
-        <v>-8.0355751519340882E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>70</v>
       </c>
@@ -2645,16 +2710,8 @@
       <c r="D16" s="11">
         <v>395290</v>
       </c>
-      <c r="E16" s="10">
-        <f t="shared" ref="E16:E22" si="0">(C16-AVERAGE(C$15:C$22))/(MAX(C$15:C$22)-MIN(C$15:C$22))</f>
-        <v>-0.17146823630136987</v>
-      </c>
-      <c r="F16" s="10">
-        <f t="shared" ref="F16:F22" si="1">(D16-AVERAGE(D$15:D$22))/(MAX(D$15:D$22)-MIN(D$15:D$22))</f>
-        <v>-9.5898828479300605E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>68</v>
       </c>
@@ -2667,16 +2724,8 @@
       <c r="D17" s="11">
         <v>2505034</v>
       </c>
-      <c r="E17" s="10">
-        <f t="shared" si="0"/>
-        <v>-0.16645453767123286</v>
-      </c>
-      <c r="F17" s="10">
-        <f t="shared" si="1"/>
-        <v>0.74707824056130701</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>66</v>
       </c>
@@ -2690,16 +2739,8 @@
       <c r="D18" s="11">
         <v>885795</v>
       </c>
-      <c r="E18" s="10">
-        <f t="shared" si="0"/>
-        <v>-0.14980453767123286</v>
-      </c>
-      <c r="F18" s="10">
-        <f t="shared" si="1"/>
-        <v>0.10008915264531132</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>65</v>
       </c>
@@ -2713,16 +2754,8 @@
       <c r="D19" s="11">
         <v>439574</v>
       </c>
-      <c r="E19" s="10">
-        <f t="shared" si="0"/>
-        <v>-0.12645453767123288</v>
-      </c>
-      <c r="F19" s="10">
-        <f t="shared" si="1"/>
-        <v>-7.8204550630711259E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
         <v>71</v>
       </c>
@@ -2736,16 +2769,8 @@
       <c r="D20" s="11">
         <v>234632</v>
       </c>
-      <c r="E20" s="10">
-        <f t="shared" si="0"/>
-        <v>-0.10645453767123288</v>
-      </c>
-      <c r="F20" s="10">
-        <f t="shared" si="1"/>
-        <v>-0.16009192961286275</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>69</v>
       </c>
@@ -2759,16 +2784,8 @@
       <c r="D21" s="11">
         <v>2304</v>
       </c>
-      <c r="E21" s="10">
-        <f t="shared" si="0"/>
-        <v>7.3545462328767131E-2</v>
-      </c>
-      <c r="F21" s="10">
-        <f t="shared" si="1"/>
-        <v>-0.25292175943869294</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
         <v>72</v>
       </c>
@@ -2781,14 +2798,6 @@
       </c>
       <c r="D22" s="11">
         <v>4574</v>
-      </c>
-      <c r="E22" s="10">
-        <f t="shared" si="0"/>
-        <v>0.82354546232876713</v>
-      </c>
-      <c r="F22" s="10">
-        <f t="shared" si="1"/>
-        <v>-0.25201474989311673</v>
       </c>
     </row>
   </sheetData>
@@ -2859,7 +2868,7 @@
         <v>9937</v>
       </c>
       <c r="D3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E3" t="s">
         <v>68</v>
@@ -2893,7 +2902,7 @@
         <v>83</v>
       </c>
       <c r="D5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E5" t="s">
         <v>68</v>
@@ -2910,7 +2919,7 @@
         <v>750</v>
       </c>
       <c r="D6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E6" t="s">
         <v>68</v>
@@ -2927,7 +2936,7 @@
         <v>95</v>
       </c>
       <c r="D7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E7" t="s">
         <v>68</v>
@@ -3573,10 +3582,10 @@
         <v>110468</v>
       </c>
       <c r="D45" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E45" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -3624,7 +3633,7 @@
         <v>44</v>
       </c>
       <c r="D48" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E48" t="s">
         <v>68</v>
@@ -3658,10 +3667,10 @@
         <v>3755</v>
       </c>
       <c r="D50" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E50" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -3777,7 +3786,7 @@
         <v>17737</v>
       </c>
       <c r="D57" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E57" t="s">
         <v>68</v>
@@ -3794,7 +3803,7 @@
         <v>1346</v>
       </c>
       <c r="D58" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E58" t="s">
         <v>68</v>
@@ -3811,7 +3820,7 @@
         <v>9731</v>
       </c>
       <c r="D59" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E59" t="s">
         <v>68</v>
@@ -3845,7 +3854,7 @@
         <v>5509</v>
       </c>
       <c r="D61" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E61" t="s">
         <v>68</v>
@@ -4134,7 +4143,7 @@
         <v>59140</v>
       </c>
       <c r="D78" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E78" t="s">
         <v>68</v>

--- a/data_visualization/sentence_length.xlsx
+++ b/data_visualization/sentence_length.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1000" windowWidth="28800" windowHeight="15840" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15700" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Plot" sheetId="8" r:id="rId1"/>
@@ -506,7 +506,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1800"/>
-              <a:t>Maximum sentence length vs crime counts by offense level</a:t>
+              <a:t>Crime</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800"/>
+              <a:t>counts vs Maximum sentence length by offense level</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -554,6 +562,115 @@
           <c:h val="0.773569103862017"/>
         </c:manualLayout>
       </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plot!$C$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average days</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Plot!$A$15:$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Violation</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B misdemeanor</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>A misdemeanor</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>E felony</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>D felony</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>D violent felony</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>B violent felony</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>A-I felony</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Plot!$C$15:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>182.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>365.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>972.725</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1825.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2555.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9125.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36500.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2123629488"/>
+        <c:axId val="-2105065936"/>
+      </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -660,120 +777,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2080653120"/>
-        <c:axId val="-2061067216"/>
-      </c:lineChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Plot!$C$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Average days</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Plot!$A$15:$A$22</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>Violation</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>B misdemeanor</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>A misdemeanor</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>E felony</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>D felony</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>D violent felony</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>B violent felony</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>A-I felony</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Plot!$C$15:$C$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>182.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>365.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>972.725</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1825.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2555.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9125.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>36500.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="-2061404368"/>
-        <c:axId val="-2074458896"/>
+        <c:axId val="2132026544"/>
+        <c:axId val="-2104749584"/>
       </c:lineChart>
       <c:valAx>
-        <c:axId val="-2074458896"/>
+        <c:axId val="-2105065936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -793,6 +801,67 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Maximum</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> sentence length (days)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -824,12 +893,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2061404368"/>
+        <c:crossAx val="-2123629488"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-2061404368"/>
+        <c:axId val="-2123629488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -872,7 +941,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2074458896"/>
+        <c:crossAx val="-2105065936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -880,12 +949,73 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2061067216"/>
+        <c:axId val="-2104749584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Crime</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> counts</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -917,11 +1047,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2080653120"/>
+        <c:crossAx val="2132026544"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-2080653120"/>
+        <c:axId val="2132026544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -931,7 +1062,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2061067216"/>
+        <c:crossAx val="-2104749584"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1574,16 +1706,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2517,8 +2649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView showRuler="0" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2811,8 +2943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
